--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Profit_Margin_Calculation.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Profit_Margin_Calculation.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Profit" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,10 +486,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -518,6 +495,270 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>OVER BUDGET</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
         </is>
       </c>
     </row>

--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Profit_Margin_Calculation.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Profit_Margin_Calculation.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,306 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
